--- a/pratica-excel.xlsx
+++ b/pratica-excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="6975" tabRatio="925" activeTab="5"/>
+    <workbookView windowWidth="20595" windowHeight="8325" tabRatio="925" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação do Aluno" sheetId="7" r:id="rId1"/>
@@ -22,8 +22,697 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encontrar o valor máximo entre Janeiro e Março</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+daniel:
+Encontrar o valor mínimo entre Janeiro e Março
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+daniel:
+Encontrar o valor médio entre Janeiro e Março
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encontrar o valor máximo entre Janeiro e Março
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encontrar o valor mínimo entre Janeiro e Março
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encontrar o valor médio entre Janeiro e Março
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Some as contas dessa coluna
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário - Total de contas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Transforme o número para formato de moeda
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário Bruto * %INSS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário Bruto * % Gratificação
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário Bruto + Gratificação - INSS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Preço unitário X quantidade
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total em R$ / Cotação do Dólar
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Testar se o salário  &lt;= 2000. Se for, multiplicar por 40%, senão, multiplicar por 30%
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Salário + aumento
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Somar os valores das duas quinzenas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Dividir o valor da coluna Total pela Meta do mês</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+((Primeira quinzena - Segunda Quinzena) / Primeira quinzena)) X 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel: Use a função SE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Se atingiu mais de 80% da meta então contratado, senão, não contrado</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Somar os gatos do trimestre
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Receita - total do trimestre
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+ Se Receita Líquida for menor que R$ 1.000,00, ""Prejuízo Total""; Se Receita Líquida for menor que R$ 5.000,00, ""Lucro Médio""; 
+Se Receita Líquida for maior que R$ 5.000,00, ""Lucro Total'."              
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="313">
   <si>
     <t>Identificação</t>
   </si>
@@ -47,250 +736,73 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01) Elaborar a planilha abaixo, fazendo-se o que se pede:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Empresa Nacional S/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Código</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Produto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Fev</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Total 1º Trim.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Máximo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mínimo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Média</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Porca</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Parafuso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Arruela</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Prego</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Alicate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Martelo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Totais</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Abr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Total 2º Trim.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Total do Semestre</t>
-    </r>
+    <t>Empresa Nacional S/A</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Total 1º Trim.</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Porca</t>
+  </si>
+  <si>
+    <t>Fórmula aqui</t>
+  </si>
+  <si>
+    <t>Parafuso</t>
+  </si>
+  <si>
+    <t>Arruela</t>
+  </si>
+  <si>
+    <t>Prego</t>
+  </si>
+  <si>
+    <t>Alicate</t>
+  </si>
+  <si>
+    <t>Martelo</t>
+  </si>
+  <si>
+    <t>Totais</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Total 2º Trim.</t>
+  </si>
+  <si>
+    <t>Total do Semestre</t>
   </si>
   <si>
     <r>
@@ -533,6 +1045,9 @@
     <t>TOTAL DE CONTAS</t>
   </si>
   <si>
+    <t>SALDO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -567,8 +1082,17 @@
         <rFont val="Times New Roman"/>
         <charset val="204"/>
       </rPr>
-      <t>Salário menos Total de Contas. 
-Transformar os valores em formato de moeda</t>
+      <t xml:space="preserve">Salário menos Total de Contas. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Transformar os valores em formato de moeda</t>
     </r>
   </si>
   <si>
@@ -663,7 +1187,7 @@
         <rFont val="Times New Roman"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">multiplicar Salário Bruto por INSS.
+      <t xml:space="preserve">multiplicar Salário Bruto pela porcentagem de INSS
 </t>
     </r>
     <r>
@@ -681,7 +1205,7 @@
         <rFont val="Times New Roman"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">multiplicar Salário Bruto por Gratificação.
+      <t xml:space="preserve">multiplicar Salário Bruto pela porcentagem de Gratificação
 </t>
     </r>
     <r>
@@ -699,7 +1223,7 @@
         <rFont val="Times New Roman"/>
         <charset val="204"/>
       </rPr>
-      <t>Salário Bruto mais Gratificação R$ menos INSS R$. Formatar os números para que eles apareçam de acordo com a planilha dada.</t>
+      <t>Salário Bruto + Gratificação R$ - INSS R$. Formatar os números para moeda</t>
     </r>
   </si>
   <si>
@@ -750,7 +1274,7 @@
   </si>
   <si>
     <t>Calcular na planilha abaixo a quantidade de aumento nos salários dos colaboradores. 
-Considere que se o colaborador ganha até mil reais o aumento será de 40% e se ganhar mais de 1000 reais o aumento será de 30%</t>
+Considere que se o colaborador ganha até 2000 reais o aumento será de 40% e se ganhar mais de 2000 reais o aumento será de 30%</t>
   </si>
   <si>
     <t>Nome</t>
@@ -1186,16 +1710,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>07) Reproduzir a planilha abaixo colocando o resultado usando a função SE com mais de um resultado na primeira tabela e função SE(E na segunda tabela.</t>
-    </r>
-  </si>
-  <si>
     <t>Endereço</t>
   </si>
   <si>
@@ -1388,17 +1902,7 @@
     <t>MG</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;- Inserir lista suspensa para buscar o nome </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>09) Elaborar a planilha abaixo, e depois, elaborar um gráfico de colunas, como mostrado abaixo:</t>
-    </r>
+    <t xml:space="preserve">&lt;- Inserir lista suspensa na guia Dadospara buscar o nome </t>
   </si>
   <si>
     <r>
@@ -2230,14 +2734,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Preciso clicar na celula de cor </t>
     </r>
     <r>
@@ -2276,31 +2772,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Todos acima de 80 foram aprovados, Certo ?! , Sendo assim, me informe por meio de fórmula o percentual (%) de aprovados que tive. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Dica: Use a base de dados para aplicar a fórmula)</t>
-    </r>
-  </si>
-  <si>
     <t>REGIONAL</t>
   </si>
   <si>
@@ -2489,16 +2960,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,##0.00\)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2559,11 +3030,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2696,6 +3162,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial MT"/>
       <charset val="134"/>
     </font>
@@ -2712,13 +3183,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -2740,6 +3211,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2773,32 +3251,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2809,23 +3266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2841,7 +3284,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2857,9 +3336,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2872,18 +3351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2912,15 +3383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
@@ -2943,8 +3405,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,6 +3498,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3037,7 +3540,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,91 +3618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3145,13 +3630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3169,13 +3654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3187,12 +3672,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3486,6 +3983,15 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -3643,6 +4149,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3658,11 +4173,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3677,21 +4213,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3716,170 +4237,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3977,9 +4483,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3989,13 +4492,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4004,28 +4507,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4040,118 +4543,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4163,19 +4669,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4184,12 +4690,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4202,7 +4708,7 @@
     <xf numFmtId="9" fontId="3" fillId="12" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="12" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="12" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4211,64 +4717,79 @@
     <xf numFmtId="9" fontId="3" fillId="12" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4278,88 +4799,121 @@
     <xf numFmtId="10" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="36" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="36" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6369,103 +6923,103 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:6">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" ht="22.5" spans="1:6">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
     </row>
     <row r="3" ht="22.5" spans="1:6">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
     </row>
     <row r="4" ht="22.5" spans="1:6">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178">
         <f ca="1">TODAY()</f>
-        <v>45929</v>
-      </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
+        <v>45930</v>
+      </c>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
     </row>
     <row r="5" ht="15" spans="1:6">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
     </row>
     <row r="6" ht="15" spans="1:6">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
     </row>
     <row r="7" ht="15" spans="1:6">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
     </row>
     <row r="8" ht="15" spans="1:6">
-      <c r="A8" s="119"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
     </row>
     <row r="9" ht="15" spans="1:6">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
     </row>
     <row r="10" ht="15" spans="1:6">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
     </row>
     <row r="11" ht="15" spans="1:6">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6508,24 +7062,24 @@
     <row r="1" ht="6.75" customHeight="1"/>
     <row r="2" ht="15.75" spans="2:5">
       <c r="B2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="2:15">
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="5">
         <v>151004157942</v>
@@ -6534,39 +7088,39 @@
         <v>89</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:15">
       <c r="B4" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D4" s="5">
         <v>151000170164</v>
@@ -6575,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="9">
         <v>34</v>
@@ -6604,10 +7158,10 @@
     </row>
     <row r="5" ht="15.75" spans="2:15">
       <c r="B5" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="5">
         <v>151003738697</v>
@@ -6616,39 +7170,39 @@
         <v>71</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>275</v>
-      </c>
       <c r="N5" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:15">
       <c r="B6" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="5">
         <v>151003140740</v>
@@ -6657,39 +7211,39 @@
         <v>79</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:15">
       <c r="B7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D7" s="5">
         <v>151003492584</v>
@@ -6698,7 +7252,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H7" s="11">
         <v>13000</v>
@@ -6727,10 +7281,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" s="5">
         <v>151004808685</v>
@@ -6741,10 +7295,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5">
         <v>151004359814</v>
@@ -6755,10 +7309,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D10" s="5">
         <v>151004359874</v>
@@ -6769,10 +7323,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" s="5">
         <v>151002300977</v>
@@ -6783,10 +7337,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5">
         <v>151002101936</v>
@@ -6797,10 +7351,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D13" s="5">
         <v>151000246436</v>
@@ -6811,10 +7365,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="5">
         <v>151007567775</v>
@@ -6825,10 +7379,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D15" s="5">
         <v>151001333244</v>
@@ -6839,10 +7393,10 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="5">
         <v>151000983679</v>
@@ -6853,10 +7407,10 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D17" s="5">
         <v>151002617090</v>
@@ -6867,10 +7421,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" s="5">
         <v>151001451021</v>
@@ -6881,10 +7435,10 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" s="5">
         <v>151002309132</v>
@@ -6895,10 +7449,10 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D20" s="5">
         <v>151005594667</v>
@@ -6909,10 +7463,10 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D21" s="5">
         <v>151002392577</v>
@@ -6923,10 +7477,10 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D22" s="5">
         <v>151008341762</v>
@@ -6937,10 +7491,10 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D23" s="5">
         <v>151007618852</v>
@@ -6951,10 +7505,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D24" s="5">
         <v>151008448714</v>
@@ -6965,10 +7519,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D25" s="5">
         <v>151002201259</v>
@@ -6979,10 +7533,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D26" s="5">
         <v>151005808188</v>
@@ -6993,10 +7547,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D27" s="5">
         <v>151001780802</v>
@@ -7007,10 +7561,10 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D28" s="5">
         <v>151000622951</v>
@@ -7021,10 +7575,10 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D29" s="5">
         <v>151000618719</v>
@@ -7035,10 +7589,10 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D30" s="5">
         <v>151003302416</v>
@@ -7049,10 +7603,10 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D31" s="5">
         <v>151004718347</v>
@@ -7063,10 +7617,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D32" s="5">
         <v>151001777290</v>
@@ -7077,10 +7631,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D33" s="5">
         <v>151000171947</v>
@@ -7091,10 +7645,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D34" s="5">
         <v>151003107054</v>
@@ -7113,580 +7667,658 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
-    <col min="3" max="4" width="13.1142857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.8857142857143" customWidth="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="5" width="20.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="16.447619047619" customWidth="1"/>
-    <col min="7" max="7" width="11.552380952381" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.7142857142857" customWidth="1"/>
+    <col min="7" max="9" width="20.7142857142857" customWidth="1"/>
     <col min="10" max="10" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:10">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+    </row>
+    <row r="2" ht="20.5" customHeight="1" spans="1:10">
+      <c r="A2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" ht="20.5" customHeight="1" spans="1:9">
-      <c r="A3" s="141" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="120"/>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" spans="1:10">
+      <c r="A3" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="156"/>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" spans="1:9">
-      <c r="A4" s="143" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="C3" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="D3" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="E3" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="F3" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="G3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="H3" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="152" t="s">
+      <c r="I3" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="J3" s="120"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A4" s="150">
+        <v>1</v>
+      </c>
+      <c r="B4" s="151" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A5" s="145">
-        <v>1</v>
-      </c>
-      <c r="B5" s="81" t="s">
+      <c r="C4" s="152">
+        <v>4500</v>
+      </c>
+      <c r="D4" s="152">
+        <v>5040</v>
+      </c>
+      <c r="E4" s="152">
+        <v>5696</v>
+      </c>
+      <c r="F4" s="153">
+        <f t="shared" ref="F4:F9" si="0">SUM(C4:E4)</f>
+        <v>15236</v>
+      </c>
+      <c r="G4" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="146">
-        <v>4500</v>
-      </c>
-      <c r="D5" s="146">
-        <v>5040</v>
-      </c>
-      <c r="E5" s="146">
-        <v>5696</v>
+      <c r="H4" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="120"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A5" s="150">
+        <v>2</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="152">
+        <v>6250</v>
+      </c>
+      <c r="D5" s="152">
+        <v>7000</v>
+      </c>
+      <c r="E5" s="152">
+        <v>7910</v>
       </c>
       <c r="F5" s="153">
-        <f t="shared" ref="F5:F10" si="0">SUM(C5:E5)</f>
-        <v>15236</v>
-      </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A6" s="145">
-        <v>2</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="146">
-        <v>6250</v>
-      </c>
-      <c r="D6" s="146">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="146">
-        <v>7910</v>
+        <f t="shared" si="0"/>
+        <v>21160</v>
+      </c>
+      <c r="G5" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="120"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A6" s="150">
+        <v>3</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="152">
+        <v>3300</v>
+      </c>
+      <c r="D6" s="152">
+        <v>3696</v>
+      </c>
+      <c r="E6" s="152">
+        <v>4176</v>
       </c>
       <c r="F6" s="153">
         <f t="shared" si="0"/>
-        <v>21160</v>
-      </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A7" s="145">
-        <v>3</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="146">
-        <v>3300</v>
-      </c>
-      <c r="D7" s="146">
-        <v>3696</v>
-      </c>
-      <c r="E7" s="146">
-        <v>4176</v>
+        <v>11172</v>
+      </c>
+      <c r="G6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A7" s="150">
+        <v>4</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="152">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="152">
+        <v>8690</v>
+      </c>
+      <c r="E7" s="152">
+        <v>10125</v>
       </c>
       <c r="F7" s="153">
         <f t="shared" si="0"/>
-        <v>11172</v>
-      </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A8" s="145">
-        <v>4</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="146">
-        <v>8000</v>
-      </c>
-      <c r="D8" s="146">
-        <v>8690</v>
-      </c>
-      <c r="E8" s="146">
-        <v>10125</v>
+        <v>26815</v>
+      </c>
+      <c r="G7" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="150">
+        <v>5</v>
+      </c>
+      <c r="B8" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="152">
+        <v>4557</v>
+      </c>
+      <c r="D8" s="152">
+        <v>5104</v>
+      </c>
+      <c r="E8" s="152">
+        <v>5676</v>
       </c>
       <c r="F8" s="153">
         <f t="shared" si="0"/>
-        <v>26815</v>
-      </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A9" s="145">
-        <v>5</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="146">
-        <v>4557</v>
-      </c>
-      <c r="D9" s="146">
-        <v>5104</v>
-      </c>
-      <c r="E9" s="146">
-        <v>5676</v>
+        <v>15337</v>
+      </c>
+      <c r="G8" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A9" s="150">
+        <v>6</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="152">
+        <v>3260</v>
+      </c>
+      <c r="D9" s="152">
+        <v>3640</v>
+      </c>
+      <c r="E9" s="152">
+        <v>4113</v>
       </c>
       <c r="F9" s="153">
         <f t="shared" si="0"/>
-        <v>15337</v>
-      </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A10" s="145">
+        <v>11013</v>
+      </c>
+      <c r="G9" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="120"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" ht="14.5" customHeight="1" spans="1:10">
+      <c r="A11" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" ht="14.5" customHeight="1" spans="1:10">
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" ht="14.5" customHeight="1" spans="1:10">
+      <c r="A13" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="146">
-        <v>3260</v>
-      </c>
-      <c r="D10" s="146">
-        <v>3640</v>
-      </c>
-      <c r="E10" s="146">
-        <v>4113</v>
-      </c>
-      <c r="F10" s="153">
-        <f t="shared" si="0"/>
-        <v>11013</v>
-      </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A11" s="145"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-    </row>
-    <row r="12" ht="14.5" customHeight="1" spans="1:9">
-      <c r="A12" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-    </row>
-    <row r="13" ht="14.5" customHeight="1" spans="1:9">
-      <c r="A13" s="143"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-    </row>
-    <row r="14" ht="14.5" customHeight="1" spans="1:9">
-      <c r="A14" s="143" t="s">
+      <c r="B13" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="143" t="s">
+      <c r="C13" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D13" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E13" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="144" t="s">
+      <c r="F13" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="144" t="s">
+      <c r="G13" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="152" t="s">
+      <c r="I13" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="152" t="s">
+      <c r="J13" s="120"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A14" s="150">
+        <v>1</v>
+      </c>
+      <c r="B14" s="151" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A15" s="145">
-        <v>1</v>
-      </c>
-      <c r="B15" s="81" t="s">
+      <c r="C14" s="152">
+        <v>6265</v>
+      </c>
+      <c r="D14" s="152">
+        <v>6954</v>
+      </c>
+      <c r="E14" s="152">
+        <v>7858</v>
+      </c>
+      <c r="F14" s="153">
+        <f t="shared" ref="F14:F19" si="1">SUM(C14:E14)</f>
+        <v>21077</v>
+      </c>
+      <c r="G14" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="146">
-        <v>6265</v>
-      </c>
-      <c r="D15" s="146">
-        <v>6954</v>
-      </c>
-      <c r="E15" s="146">
-        <v>7858</v>
+      <c r="H14" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="120"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A15" s="150">
+        <v>2</v>
+      </c>
+      <c r="B15" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="152">
+        <v>8701</v>
+      </c>
+      <c r="D15" s="152">
+        <v>9658</v>
+      </c>
+      <c r="E15" s="152">
+        <v>10197</v>
       </c>
       <c r="F15" s="153">
-        <f t="shared" ref="F15:F20" si="1">SUM(C15:E15)</f>
-        <v>21077</v>
-      </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A16" s="145">
-        <v>2</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="146">
-        <v>8701</v>
-      </c>
-      <c r="D16" s="146">
-        <v>9658</v>
-      </c>
-      <c r="E16" s="146">
-        <v>10197</v>
+        <f t="shared" si="1"/>
+        <v>28556</v>
+      </c>
+      <c r="G15" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="120"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A16" s="150">
+        <v>3</v>
+      </c>
+      <c r="B16" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="152">
+        <v>4569</v>
+      </c>
+      <c r="D16" s="152">
+        <v>5099</v>
+      </c>
+      <c r="E16" s="152">
+        <v>5769</v>
       </c>
       <c r="F16" s="153">
         <f t="shared" si="1"/>
-        <v>28556</v>
-      </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="145">
-        <v>3</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="146">
-        <v>4569</v>
-      </c>
-      <c r="D17" s="146">
-        <v>5099</v>
-      </c>
-      <c r="E17" s="146">
-        <v>5769</v>
+        <v>15437</v>
+      </c>
+      <c r="G16" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="120"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A17" s="150">
+        <v>4</v>
+      </c>
+      <c r="B17" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="152">
+        <v>12341</v>
+      </c>
+      <c r="D17" s="152">
+        <v>12365</v>
+      </c>
+      <c r="E17" s="152">
+        <v>13969</v>
       </c>
       <c r="F17" s="153">
         <f t="shared" si="1"/>
-        <v>15437</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A18" s="145">
-        <v>4</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="146">
-        <v>12341</v>
-      </c>
-      <c r="D18" s="146">
-        <v>12365</v>
-      </c>
-      <c r="E18" s="146">
-        <v>13969</v>
+        <v>38675</v>
+      </c>
+      <c r="G17" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="120"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A18" s="150">
+        <v>5</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="152">
+        <v>6344</v>
+      </c>
+      <c r="D18" s="152">
+        <v>7042</v>
+      </c>
+      <c r="E18" s="152">
+        <v>7957</v>
       </c>
       <c r="F18" s="153">
         <f t="shared" si="1"/>
-        <v>38675</v>
-      </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="145">
-        <v>5</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="146">
-        <v>6344</v>
-      </c>
-      <c r="D19" s="146">
-        <v>7042</v>
-      </c>
-      <c r="E19" s="146">
-        <v>7957</v>
+        <v>21343</v>
+      </c>
+      <c r="G18" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="120"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A19" s="150">
+        <v>6</v>
+      </c>
+      <c r="B19" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="152">
+        <v>4525</v>
+      </c>
+      <c r="D19" s="152">
+        <v>5022</v>
+      </c>
+      <c r="E19" s="152">
+        <v>5671</v>
       </c>
       <c r="F19" s="153">
         <f t="shared" si="1"/>
-        <v>21343</v>
-      </c>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A20" s="145">
-        <v>6</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="146">
-        <v>4525</v>
-      </c>
-      <c r="D20" s="146">
-        <v>5022</v>
-      </c>
-      <c r="E20" s="146">
-        <v>5671</v>
-      </c>
-      <c r="F20" s="153">
-        <f t="shared" si="1"/>
         <v>15218</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A21" s="145"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-    </row>
-    <row r="22" ht="14.5" customHeight="1" spans="1:9">
-      <c r="A22" s="144" t="s">
+      <c r="G19" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="120"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A20" s="150"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="120"/>
+    </row>
+    <row r="21" ht="14.5" customHeight="1" spans="1:10">
+      <c r="A21" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="148"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-    </row>
-    <row r="23" ht="24.5" customHeight="1" spans="1:9">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-    </row>
-    <row r="24" ht="24.5" customHeight="1" spans="1:9">
-      <c r="A24" s="144" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="120"/>
+    </row>
+    <row r="22" ht="24.5" customHeight="1" spans="1:10">
+      <c r="A22" s="149"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="120"/>
+    </row>
+    <row r="23" ht="24.5" customHeight="1" spans="1:10">
+      <c r="A23" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="151">
-        <f>SUM(F12,F22)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-    </row>
-    <row r="25" ht="90.25" customHeight="1" spans="1:10">
+      <c r="B23" s="149"/>
+      <c r="C23" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="120"/>
+    </row>
+    <row r="24" ht="90.25" customHeight="1" spans="1:10">
+      <c r="A24" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+    </row>
+    <row r="25" ht="75.25" customHeight="1" spans="1:10">
       <c r="A25" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-    </row>
-    <row r="26" ht="75.25" customHeight="1" spans="1:10">
-      <c r="A26" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="1" spans="1:10">
+      <c r="A26" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A27" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A28" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7695,8 +8327,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -7707,477 +8339,479 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="125" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="125">
+      <c r="B3" s="127">
         <v>4480</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C3" s="127">
         <v>4480</v>
       </c>
-      <c r="D3" s="125">
+      <c r="D3" s="127">
         <v>4480</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="127">
         <v>4480</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3" s="127">
         <v>4480</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3" s="127">
         <v>4480</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="125">
+      <c r="B5" s="127">
         <v>60</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="131">
         <v>70</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="131">
         <v>69</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="131">
         <v>65</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="131">
         <v>71</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="131">
         <v>68</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="125">
+      <c r="B6" s="127">
         <v>180</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6" s="127">
         <v>190</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="127">
         <v>175</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="127">
         <v>202</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="127">
         <v>195</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="127">
         <v>193</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="125">
+      <c r="B7" s="127">
         <v>300</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="127">
         <v>300</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="127">
         <v>300</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="127">
         <v>300</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="127">
         <v>300</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="127">
         <v>300</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="125">
+      <c r="B8" s="127">
         <v>236</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8" s="127">
         <v>236</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="127">
         <v>236</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="127">
         <v>236</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="127">
         <v>236</v>
       </c>
-      <c r="G8" s="129">
+      <c r="G8" s="131">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:7">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="127">
         <v>360</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="127">
         <v>360</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="127">
         <v>360</v>
       </c>
-      <c r="E9" s="129">
+      <c r="E9" s="131">
         <v>0</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="131">
         <v>0</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="131">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="125">
+      <c r="B10" s="127">
         <v>700</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="131">
         <v>650</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="131">
         <v>800</v>
       </c>
-      <c r="E10" s="129">
+      <c r="E10" s="131">
         <v>554</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="131">
         <v>610</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="131">
         <v>715</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="127">
         <v>450</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="127">
         <v>450</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="127">
         <v>450</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="127">
         <v>450</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="127">
         <v>450</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="127">
         <v>450</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="125">
+      <c r="B12" s="127">
         <v>100</v>
       </c>
-      <c r="C12" s="125">
+      <c r="C12" s="127">
         <v>100</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="127">
         <v>100</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="127">
         <v>100</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="127">
         <v>100</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="127">
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
     </row>
     <row r="14" ht="14.75" customHeight="1" spans="1:7">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
+      <c r="A14" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
     </row>
     <row r="15" ht="76" customHeight="1" spans="1:7">
       <c r="A15" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="A16" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
     </row>
     <row r="17" ht="28.5" customHeight="1" spans="1:7">
-      <c r="A17" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
+      <c r="A17" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A18" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="133" t="s">
+      <c r="A18" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="C18" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="D18" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="E18" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="F18" s="138" t="s">
         <v>59</v>
       </c>
+      <c r="G18" s="143" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A19" s="133" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="134">
+      <c r="A19" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="139">
         <v>2120</v>
       </c>
-      <c r="C19" s="135">
+      <c r="C19" s="140">
         <v>0.1</v>
       </c>
-      <c r="D19" s="135">
+      <c r="D19" s="140">
         <v>0.09</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A20" s="133" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="134">
+      <c r="A20" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="139">
         <v>2300</v>
       </c>
-      <c r="C20" s="135">
+      <c r="C20" s="140">
         <v>0.0999</v>
       </c>
-      <c r="D20" s="135">
+      <c r="D20" s="140">
         <v>0.08</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="144"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A21" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="134">
+      <c r="A21" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="139">
         <v>2300</v>
       </c>
-      <c r="C21" s="135">
+      <c r="C21" s="140">
         <v>0.0864</v>
       </c>
-      <c r="D21" s="135">
+      <c r="D21" s="140">
         <v>0.06</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="144"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A22" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="134">
+      <c r="A22" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="139">
         <v>2650</v>
       </c>
-      <c r="C22" s="135">
+      <c r="C22" s="140">
         <v>0.085</v>
       </c>
-      <c r="D22" s="135">
+      <c r="D22" s="140">
         <v>0.06</v>
       </c>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="144"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A23" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="134">
+      <c r="A23" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="139">
         <v>3112</v>
       </c>
-      <c r="C23" s="135">
+      <c r="C23" s="140">
         <v>0.0899</v>
       </c>
-      <c r="D23" s="135">
+      <c r="D23" s="140">
         <v>0.07</v>
       </c>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A24" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="134">
+      <c r="A24" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="139">
         <v>4000</v>
       </c>
-      <c r="C24" s="135">
+      <c r="C24" s="140">
         <v>0.0625</v>
       </c>
-      <c r="D24" s="135">
+      <c r="D24" s="140">
         <v>0.05</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A25" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="134">
+      <c r="A25" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="139">
         <v>2200</v>
       </c>
-      <c r="C25" s="135">
+      <c r="C25" s="140">
         <v>0.0712</v>
       </c>
-      <c r="D25" s="135">
+      <c r="D25" s="140">
         <v>0.05</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A26" s="133" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="134">
+      <c r="A26" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="139">
         <v>1960</v>
       </c>
-      <c r="C26" s="135">
+      <c r="C26" s="140">
         <v>0.0599</v>
       </c>
-      <c r="D26" s="135">
+      <c r="D26" s="140">
         <v>0.04</v>
       </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="144"/>
     </row>
     <row r="27" ht="75.25" customHeight="1" spans="1:7">
-      <c r="A27" s="136" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
+      <c r="A27" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8189,6 +8823,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8197,8 +8832,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -8208,7 +8843,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:5">
       <c r="A1" s="115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -8217,7 +8852,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="117">
         <v>5.41</v>
@@ -8228,7 +8863,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -8237,29 +8872,29 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
       <c r="A4" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="C4" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="73" t="s">
         <v>76</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
       <c r="A5" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="70">
+        <v>78</v>
+      </c>
+      <c r="B5" s="73">
         <v>500</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="118">
         <v>0.15</v>
       </c>
       <c r="D5" s="70"/>
@@ -8267,12 +8902,12 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
       <c r="A6" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="70">
+        <v>79</v>
+      </c>
+      <c r="B6" s="73">
         <v>750</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="118">
         <v>0.15</v>
       </c>
       <c r="D6" s="70"/>
@@ -8280,12 +8915,12 @@
     </row>
     <row r="7" ht="15" spans="1:5">
       <c r="A7" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="70">
+        <v>80</v>
+      </c>
+      <c r="B7" s="73">
         <v>250</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="118">
         <v>10</v>
       </c>
       <c r="D7" s="70"/>
@@ -8293,12 +8928,12 @@
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
       <c r="A8" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="70">
+        <v>81</v>
+      </c>
+      <c r="B8" s="73">
         <v>310</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="118">
         <v>0.5</v>
       </c>
       <c r="D8" s="70"/>
@@ -8306,12 +8941,12 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
       <c r="A9" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="70">
+        <v>82</v>
+      </c>
+      <c r="B9" s="73">
         <v>500</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="118">
         <v>0.1</v>
       </c>
       <c r="D9" s="70"/>
@@ -8319,12 +8954,12 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
       <c r="A10" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="70">
+        <v>83</v>
+      </c>
+      <c r="B10" s="73">
         <v>1500</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="118">
         <v>2.5</v>
       </c>
       <c r="D10" s="70"/>
@@ -8332,12 +8967,12 @@
     </row>
     <row r="11" ht="15" spans="1:5">
       <c r="A11" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="70">
+        <v>84</v>
+      </c>
+      <c r="B11" s="73">
         <v>190</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="118">
         <v>6</v>
       </c>
       <c r="D11" s="70"/>
@@ -8345,115 +8980,115 @@
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:5">
       <c r="A12" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+        <v>85</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
       <c r="A13" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="C13" s="73" t="s">
         <v>88</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="70"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
       <c r="A14" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="117">
+        <v>90</v>
+      </c>
+      <c r="B14" s="118">
         <v>1600</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="70"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
       <c r="A15" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="117">
+        <v>91</v>
+      </c>
+      <c r="B15" s="118">
         <v>1900</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="70"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="117">
+        <v>92</v>
+      </c>
+      <c r="B16" s="118">
         <v>1800</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="70"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:5">
       <c r="A17" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="117">
+        <v>93</v>
+      </c>
+      <c r="B17" s="118">
         <v>2200</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="70"/>
     </row>
     <row r="18" ht="15" spans="1:5">
       <c r="A18" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="117">
+        <v>94</v>
+      </c>
+      <c r="B18" s="118">
         <v>1700</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="70"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A19" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="120">
+      <c r="A19" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="121">
         <v>2100</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="120"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A20" s="119" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="120">
+      <c r="A20" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="121">
         <v>2340</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="120"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A21" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="120">
+      <c r="A21" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="121">
         <v>2700</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="120"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
@@ -8464,6 +9099,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8472,8 +9108,8 @@
   <sheetPr/>
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -8496,59 +9132,59 @@
     <row r="1" ht="9" customHeight="1"/>
     <row r="2" spans="6:11">
       <c r="F2" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
       <c r="I2" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="45" spans="2:11">
       <c r="B5" s="98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H5" s="106"/>
       <c r="I5" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5" s="105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
@@ -8564,13 +9200,13 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="4">
         <v>14</v>
@@ -8586,13 +9222,13 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="4">
         <v>15</v>
@@ -8608,13 +9244,13 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="4">
         <v>12</v>
@@ -8630,13 +9266,13 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
@@ -8652,13 +9288,13 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4">
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="4">
         <v>14</v>
@@ -8674,13 +9310,13 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -8696,13 +9332,13 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -8718,13 +9354,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" s="4">
         <v>17</v>
@@ -8740,13 +9376,13 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="4">
         <v>16</v>
@@ -8763,13 +9399,13 @@
     <row r="17" customHeight="1" spans="9:12">
       <c r="I17" s="113"/>
       <c r="K17" s="106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="114"/>
     </row>
     <row r="18" customHeight="1" spans="2:12">
       <c r="B18" s="101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="101"/>
@@ -8800,7 +9436,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J21" s="114"/>
       <c r="K21" s="114"/>
@@ -8808,14 +9444,14 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="114"/>
     </row>
     <row r="23" ht="43" customHeight="1" spans="2:12">
       <c r="B23" s="102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -8840,17 +9476,18 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -8870,7 +9507,7 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:13">
       <c r="A1" s="68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -8887,22 +9524,22 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:13">
       <c r="A2" s="70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="70"/>
       <c r="J2" s="70"/>
@@ -8931,22 +9568,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:13">
       <c r="A4" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="73" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>130</v>
       </c>
       <c r="G4" s="70"/>
       <c r="J4" s="70"/>
@@ -8955,7 +9592,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:13">
       <c r="A5" s="70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="72">
         <v>20000</v>
@@ -8977,7 +9614,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13">
       <c r="A6" s="70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="72">
         <v>20000</v>
@@ -8999,7 +9636,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
       <c r="A7" s="70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="72">
         <v>12000</v>
@@ -9021,7 +9658,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
       <c r="A8" s="70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="72">
         <v>16100</v>
@@ -9043,7 +9680,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
       <c r="A9" s="70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="72">
         <v>19900</v>
@@ -9065,7 +9702,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
       <c r="A10" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="72">
         <v>25000</v>
@@ -9087,7 +9724,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13">
       <c r="A11" s="70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
@@ -9103,7 +9740,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:13">
       <c r="A12" s="70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -9120,12 +9757,12 @@
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:13">
       <c r="A13" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+        <v>141</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
@@ -9137,7 +9774,7 @@
     </row>
     <row r="14" ht="15" spans="1:13">
       <c r="A14" s="70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -9153,139 +9790,121 @@
     </row>
     <row r="15" ht="131" customHeight="1" spans="1:15">
       <c r="A15" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+        <v>143</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:15">
       <c r="A16" s="74"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-    </row>
-    <row r="17" ht="29.75" customHeight="1" spans="1:15">
-      <c r="A17" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1" spans="10:14">
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
     <row r="19" ht="14.25" customHeight="1" spans="10:14">
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="10:14">
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="89"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="10:14">
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="10:14">
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="93"/>
-    </row>
-    <row r="23" ht="13.25" customHeight="1" spans="10:14">
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-    </row>
-    <row r="24" spans="10:14">
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="96"/>
-    </row>
-    <row r="25" ht="26" customHeight="1" spans="10:14">
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-    </row>
+      <c r="J21" s="82"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="93"/>
+    </row>
+    <row r="22" ht="13.25" customHeight="1" spans="10:14">
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+    </row>
+    <row r="23" spans="10:14">
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="96"/>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="10:14">
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
+    <row r="32" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="J20:L20"/>
@@ -9298,12 +9917,11 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9312,8 +9930,8 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9327,53 +9945,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:12">
-      <c r="A3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G3" s="67" t="s">
@@ -9386,19 +10004,19 @@
       <c r="L3" s="67"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:12">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>160</v>
       </c>
       <c r="G4" s="67"/>
@@ -9409,19 +10027,19 @@
       <c r="L4" s="67"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:12">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G5" s="67"/>
@@ -9432,19 +10050,19 @@
       <c r="L5" s="67"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:12">
-      <c r="A6" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G6" s="67"/>
@@ -9455,19 +10073,19 @@
       <c r="L6" s="67"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:12">
-      <c r="A7" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="61" t="s">
         <v>170</v>
       </c>
       <c r="G7" s="67"/>
@@ -9478,19 +10096,19 @@
       <c r="L7" s="67"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G8" s="67"/>
@@ -9501,19 +10119,19 @@
       <c r="L8" s="67"/>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:12">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="67"/>
@@ -9524,19 +10142,19 @@
       <c r="L9" s="67"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:12">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>183</v>
       </c>
       <c r="G10" s="67"/>
@@ -9547,19 +10165,19 @@
       <c r="L10" s="67"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:12">
-      <c r="A11" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>187</v>
       </c>
       <c r="G11" s="67"/>
@@ -9570,19 +10188,19 @@
       <c r="L11" s="67"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:12">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G12" s="67"/>
@@ -9593,19 +10211,19 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:12">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="67"/>
@@ -9616,19 +10234,19 @@
       <c r="L13" s="67"/>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:12">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="61" t="s">
         <v>197</v>
       </c>
       <c r="G14" s="67"/>
@@ -9639,19 +10257,19 @@
       <c r="L14" s="67"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:12">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="61" t="s">
         <v>202</v>
       </c>
       <c r="G15" s="67"/>
@@ -9662,19 +10280,19 @@
       <c r="L15" s="67"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:12">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>207</v>
       </c>
       <c r="G16" s="67"/>
@@ -9684,52 +10302,54 @@
       <c r="K16" s="67"/>
       <c r="L16" s="67"/>
     </row>
-    <row r="17" s="60" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A17" s="64" t="s">
-        <v>85</v>
+    <row r="17" s="59" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A17" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>208</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
-    </row>
-    <row r="18" s="60" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A18" s="64" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" s="59" customFormat="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A18" s="63" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="66"/>
     </row>
-    <row r="19" s="60" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A19" s="64" t="s">
+    <row r="19" s="59" customFormat="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A19" s="63" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="66"/>
     </row>
-    <row r="20" s="60" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A20" s="64" t="s">
+    <row r="20" s="59" customFormat="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A20" s="63" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="66"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C17:G17"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G3:L16"/>
   </mergeCells>
@@ -9741,10 +10361,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C7" sqref="C7:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9759,313 +10379,313 @@
     <col min="10" max="10" width="16.447619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:10">
+    <row r="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A1" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:1">
+      <c r="A2" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A3" s="39" t="s">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A3" s="38" t="s">
         <v>211</v>
       </c>
+      <c r="B3" s="39">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" s="39" t="s">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="41">
-        <v>3.34</v>
-      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="57"/>
+      <c r="B6" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A7" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="A7" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>220</v>
-      </c>
+      <c r="B7" s="48">
+        <v>500</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="40">
+        <v>0.55</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
+        <v>200</v>
+      </c>
+      <c r="C8" s="49">
+        <v>2.57</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="40">
+        <v>2.7</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A9" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="48">
+        <v>300</v>
+      </c>
+      <c r="C9" s="49">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A10" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="48">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A11" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="48">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A12" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="48">
+        <v>200</v>
+      </c>
+      <c r="C12" s="49">
+        <v>3</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A13" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="48">
         <v>500</v>
       </c>
-      <c r="C8" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="41">
-        <v>0.55</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A9" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="49">
-        <v>200</v>
-      </c>
-      <c r="C9" s="50">
-        <v>2.57</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="41">
-        <v>2.7</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A10" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="49">
-        <v>300</v>
-      </c>
-      <c r="C10" s="50">
-        <v>5</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="41">
-        <v>5.5</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A11" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="49">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0.15</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="41">
+      <c r="C13" s="49">
         <v>0.25</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A12" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="49">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="50">
-        <v>0.15</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A13" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="49">
-        <v>200</v>
-      </c>
-      <c r="C13" s="50">
-        <v>3</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <v>500</v>
       </c>
-      <c r="C14" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="C14" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="49">
-        <v>500</v>
-      </c>
-      <c r="C15" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="B15" s="48">
+        <v>50</v>
+      </c>
+      <c r="C15" s="49">
+        <v>6</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="49">
-        <v>50</v>
-      </c>
-      <c r="C16" s="50">
+      <c r="B16" s="48">
+        <v>100</v>
+      </c>
+      <c r="C16" s="49">
+        <v>3.14</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="40">
+        <v>4</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="48">
+        <v>100</v>
+      </c>
+      <c r="C17" s="49">
+        <v>5.68</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="40">
         <v>6</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="41">
-        <v>6.5</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="49">
-        <v>100</v>
-      </c>
-      <c r="C17" s="50">
-        <v>3.14</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="41">
-        <v>4</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="49">
-        <v>100</v>
-      </c>
-      <c r="C18" s="50">
-        <v>5.68</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="41">
-        <v>6</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="46" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" ht="155.25" customHeight="1" spans="1:10">
+      <c r="A19" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="54"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" ht="155.25" customHeight="1" spans="1:10">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" spans="1:10">
       <c r="A20" s="55" t="s">
         <v>233</v>
       </c>
@@ -10079,41 +10699,27 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A21" s="56" t="s">
+    <row r="21" ht="120.75" customHeight="1" spans="1:10">
+      <c r="A21" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-    </row>
-    <row r="22" ht="120.75" customHeight="1" spans="1:10">
-      <c r="A22" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:I6"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -10126,10 +10732,9 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -10141,8 +10746,8 @@
   <sheetPr/>
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -10168,14 +10773,14 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="24" spans="2:14">
       <c r="B2" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="G2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -10188,14 +10793,14 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="2:13">
       <c r="B4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="G4" s="13"/>
       <c r="M4" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="19.5" spans="2:11">
@@ -10204,7 +10809,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="I5" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -10216,17 +10821,17 @@
       <c r="E6" s="16"/>
       <c r="G6" s="13"/>
       <c r="I6" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N6" s="20"/>
     </row>
@@ -10237,17 +10842,17 @@
       <c r="E7" s="16"/>
       <c r="G7" s="13"/>
       <c r="I7" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N7" s="20"/>
     </row>
@@ -10256,28 +10861,28 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="2:14">
       <c r="B9" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="13"/>
       <c r="K9" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="2:14">
       <c r="B10" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="13"/>
       <c r="I10" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10" s="28"/>
       <c r="M10"/>
@@ -10285,33 +10890,33 @@
     </row>
     <row r="11" ht="15.75" spans="2:11">
       <c r="B11" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I11" s="28"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" spans="2:13">
       <c r="B12" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="13"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="2:10">
       <c r="B13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="10:10">
@@ -10322,7 +10927,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -10357,9 +10962,7 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G21" s="13"/>
-      <c r="I21" s="30" t="s">
-        <v>253</v>
-      </c>
+      <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="31"/>

--- a/pratica-excel.xlsx
+++ b/pratica-excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20595" windowHeight="8325" tabRatio="925" activeTab="8"/>
+    <workbookView windowWidth="20595" windowHeight="8325" tabRatio="925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação do Aluno" sheetId="7" r:id="rId1"/>
@@ -116,7 +116,7 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-Encontrar o valor máximo entre Janeiro e Março
+Encontrar o valor máximo entre Abril, Maio e Junho
 </t>
         </r>
       </text>
@@ -139,7 +139,7 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-Encontrar o valor mínimo entre Janeiro e Março
+Encontrar o valor mínimo entre Abril, Maio e Junho
 </t>
         </r>
       </text>
@@ -162,7 +162,7 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-Encontrar o valor médio entre Janeiro e Março
+Encontrar o valor médio entre Abril, Maio e Junho
 </t>
         </r>
       </text>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="313">
   <si>
     <t>Identificação</t>
   </si>
@@ -7669,8 +7669,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7946,10 +7946,18 @@
       <c r="B11" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="165"/>
+      <c r="C11" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="164"/>
       <c r="H11" s="164"/>
       <c r="I11" s="164"/>
@@ -8200,10 +8208,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="154"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="165"/>
+      <c r="C21" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="165" t="s">
+        <v>16</v>
+      </c>
       <c r="G21" s="168"/>
       <c r="H21" s="168"/>
       <c r="I21" s="168"/>
@@ -10746,7 +10762,7 @@
   <sheetPr/>
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
